--- a/document/01_要件定義_基本設計/制作物_機能_ラフ.xlsx
+++ b/document/01_要件定義_基本設計/制作物_機能_ラフ.xlsx
@@ -467,7 +467,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +488,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5983B0"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
@@ -527,7 +533,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -560,11 +566,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -629,7 +639,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -649,10 +659,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -798,7 +808,7 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -826,133 +836,136 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+    <row r="18" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+    <row r="19" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
